--- a/Code/Results/Cases/Case_5_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.08391004843827</v>
+        <v>2.462849570000458</v>
       </c>
       <c r="C2">
-        <v>0.7824095879819879</v>
+        <v>0.2267414144939721</v>
       </c>
       <c r="D2">
-        <v>0.066954290217069</v>
+        <v>0.1261810435928226</v>
       </c>
       <c r="E2">
-        <v>0.0337445781003769</v>
+        <v>0.05179948103848364</v>
       </c>
       <c r="F2">
-        <v>2.590444526255254</v>
+        <v>2.512590215698481</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1494388809187086</v>
+        <v>0.1935801646048105</v>
       </c>
       <c r="M2">
-        <v>0.6254142580027064</v>
+        <v>0.443544082336615</v>
       </c>
       <c r="N2">
-        <v>1.39600898370341</v>
+        <v>2.342519244637273</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.546489984438438</v>
+        <v>2.339734690346575</v>
       </c>
       <c r="C3">
-        <v>0.6739081575260855</v>
+        <v>0.1971758706343962</v>
       </c>
       <c r="D3">
-        <v>0.06764431848188224</v>
+        <v>0.1267737299606289</v>
       </c>
       <c r="E3">
-        <v>0.03217747386880276</v>
+        <v>0.05127343437879794</v>
       </c>
       <c r="F3">
-        <v>2.340320051600031</v>
+        <v>2.463575717352057</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1351873982341516</v>
+        <v>0.1912509182809643</v>
       </c>
       <c r="M3">
-        <v>0.5461042636370408</v>
+        <v>0.4261271886266371</v>
       </c>
       <c r="N3">
-        <v>1.42102294000469</v>
+        <v>2.353551735120391</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.223410479770507</v>
+        <v>2.26572530936636</v>
       </c>
       <c r="C4">
-        <v>0.6083647429722987</v>
+        <v>0.179039771927421</v>
       </c>
       <c r="D4">
-        <v>0.06820165381997612</v>
+        <v>0.1271821046592834</v>
       </c>
       <c r="E4">
-        <v>0.03122775428963731</v>
+        <v>0.05094355868143374</v>
       </c>
       <c r="F4">
-        <v>2.192596101961385</v>
+        <v>2.434976978526691</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1266995785211904</v>
+        <v>0.1899219057063846</v>
       </c>
       <c r="M4">
-        <v>0.4984878254004883</v>
+        <v>0.4157147108890555</v>
       </c>
       <c r="N4">
-        <v>1.438550607952109</v>
+        <v>2.361022628853064</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.093261595361355</v>
+        <v>2.235961576800605</v>
       </c>
       <c r="C5">
-        <v>0.5818800420462367</v>
+        <v>0.1716527671450478</v>
       </c>
       <c r="D5">
-        <v>0.06845989427806032</v>
+        <v>0.1273596603933207</v>
       </c>
       <c r="E5">
-        <v>0.0308430494443499</v>
+        <v>0.05080738384047745</v>
       </c>
       <c r="F5">
-        <v>2.1337131489109</v>
+        <v>2.423696730668482</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1233002899552886</v>
+        <v>0.189405717609489</v>
       </c>
       <c r="M5">
-        <v>0.4793216937269094</v>
+        <v>0.4115419923478498</v>
       </c>
       <c r="N5">
-        <v>1.44620412776402</v>
+        <v>2.364241640070588</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.071735374679349</v>
+        <v>2.231043157541535</v>
       </c>
       <c r="C6">
-        <v>0.5774945905363325</v>
+        <v>0.1704263568152271</v>
       </c>
       <c r="D6">
-        <v>0.06850458672291992</v>
+        <v>0.1273898150171888</v>
       </c>
       <c r="E6">
-        <v>0.03077928675174402</v>
+        <v>0.05078466603803111</v>
       </c>
       <c r="F6">
-        <v>2.124010853961295</v>
+        <v>2.421846174276411</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1227392599112349</v>
+        <v>0.1893215376319404</v>
       </c>
       <c r="M6">
-        <v>0.476152617722434</v>
+        <v>0.4108533605601608</v>
       </c>
       <c r="N6">
-        <v>1.447504894000119</v>
+        <v>2.364786677732539</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.221649421638915</v>
+        <v>2.26532230645023</v>
       </c>
       <c r="C7">
-        <v>0.6080067085869985</v>
+        <v>0.1789401345724286</v>
       </c>
       <c r="D7">
-        <v>0.06820501363008447</v>
+        <v>0.1271844541887184</v>
       </c>
       <c r="E7">
-        <v>0.03122255768566173</v>
+        <v>0.05094172927922891</v>
       </c>
       <c r="F7">
-        <v>2.191796854351395</v>
+        <v>2.43482333802568</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1266535014839576</v>
+        <v>0.1899148414405403</v>
       </c>
       <c r="M7">
-        <v>0.4982284230487437</v>
+        <v>0.4156581513565811</v>
       </c>
       <c r="N7">
-        <v>1.438651800879768</v>
+        <v>2.361065335703046</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.897032819330775</v>
+        <v>2.420069291190828</v>
       </c>
       <c r="C8">
-        <v>0.7447456283332485</v>
+        <v>0.2165431763653771</v>
       </c>
       <c r="D8">
-        <v>0.06716289103590967</v>
+        <v>0.126376148800496</v>
       </c>
       <c r="E8">
-        <v>0.033201121102441</v>
+        <v>0.05161951757817373</v>
       </c>
       <c r="F8">
-        <v>2.50288798509709</v>
+        <v>2.495378032804112</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1444663660746102</v>
+        <v>0.1927560197516343</v>
       </c>
       <c r="M8">
-        <v>0.597822678622066</v>
+        <v>0.437480078449255</v>
       </c>
       <c r="N8">
-        <v>1.404161766133868</v>
+        <v>2.346178194808672</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.287678490689643</v>
+        <v>2.736227738671232</v>
       </c>
       <c r="C9">
-        <v>1.023781901534448</v>
+        <v>0.2904566404548063</v>
       </c>
       <c r="D9">
-        <v>0.06630740832735427</v>
+        <v>0.1251457441738282</v>
       </c>
       <c r="E9">
-        <v>0.03722306214960014</v>
+        <v>0.05289489744467879</v>
       </c>
       <c r="F9">
-        <v>3.167301322499867</v>
+        <v>2.626112249226622</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1818090665430958</v>
+        <v>0.1991326153031281</v>
       </c>
       <c r="M9">
-        <v>0.8034070965811821</v>
+        <v>0.4825258030473236</v>
       </c>
       <c r="N9">
-        <v>1.355486584220628</v>
+        <v>2.322545106758909</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.368063447883173</v>
+        <v>2.976467311397016</v>
       </c>
       <c r="C10">
-        <v>1.239190012231802</v>
+        <v>0.3449235667931134</v>
       </c>
       <c r="D10">
-        <v>0.0666096500504878</v>
+        <v>0.1244606681744855</v>
       </c>
       <c r="E10">
-        <v>0.04033474061221831</v>
+        <v>0.05380036671946797</v>
       </c>
       <c r="F10">
-        <v>3.701202916202533</v>
+        <v>2.729641756673573</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.211234808235119</v>
+        <v>0.2043125403091608</v>
       </c>
       <c r="M10">
-        <v>0.963439560942426</v>
+        <v>0.5170249657290498</v>
       </c>
       <c r="N10">
-        <v>1.334069455058753</v>
+        <v>2.308615053884523</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.877152585804197</v>
+        <v>3.087535698457714</v>
       </c>
       <c r="C11">
-        <v>1.340447229296842</v>
+        <v>0.369749989201182</v>
       </c>
       <c r="D11">
-        <v>0.06700541883885336</v>
+        <v>0.1241971384477267</v>
       </c>
       <c r="E11">
-        <v>0.04180368687290681</v>
+        <v>0.0542057063608663</v>
       </c>
       <c r="F11">
-        <v>3.957371551690642</v>
+        <v>2.778402473010175</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2251902488142008</v>
+        <v>0.206777519720788</v>
       </c>
       <c r="M11">
-        <v>1.038915093212374</v>
+        <v>0.5330314114518657</v>
       </c>
       <c r="N11">
-        <v>1.328183962931277</v>
+        <v>2.303032930292858</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.072943985451388</v>
+        <v>3.129854200067484</v>
       </c>
       <c r="C12">
-        <v>1.37936037823556</v>
+        <v>0.3791591112508854</v>
       </c>
       <c r="D12">
-        <v>0.06719812750750975</v>
+        <v>0.1241043155248676</v>
       </c>
       <c r="E12">
-        <v>0.04236959698302556</v>
+        <v>0.05435827494959611</v>
       </c>
       <c r="F12">
-        <v>4.056619149722081</v>
+        <v>2.797109177730391</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2305701306062389</v>
+        <v>0.2077266295704163</v>
       </c>
       <c r="M12">
-        <v>1.067951603733825</v>
+        <v>0.5391380859501709</v>
       </c>
       <c r="N12">
-        <v>1.32658416869765</v>
+        <v>2.301028456949766</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.030634507898867</v>
+        <v>3.120728571409245</v>
       </c>
       <c r="C13">
-        <v>1.370952659516718</v>
+        <v>0.3771323240249558</v>
       </c>
       <c r="D13">
-        <v>0.06715461738826889</v>
+        <v>0.124123995780387</v>
       </c>
       <c r="E13">
-        <v>0.04224725353823366</v>
+        <v>0.05432545739713035</v>
       </c>
       <c r="F13">
-        <v>4.035138860214829</v>
+        <v>2.793069543975179</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2294070054879711</v>
+        <v>0.2075215236528578</v>
       </c>
       <c r="M13">
-        <v>1.061676564118777</v>
+        <v>0.5378208790628918</v>
       </c>
       <c r="N13">
-        <v>1.326899430784721</v>
+        <v>2.301455279218828</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.893197128112092</v>
+        <v>3.091012052373628</v>
       </c>
       <c r="C14">
-        <v>1.343636601499554</v>
+        <v>0.3705239203225688</v>
       </c>
       <c r="D14">
-        <v>0.06702037830996943</v>
+        <v>0.1241893618618803</v>
       </c>
       <c r="E14">
-        <v>0.04185003861444159</v>
+        <v>0.05421827669375645</v>
       </c>
       <c r="F14">
-        <v>3.965489697092778</v>
+        <v>2.779936617551897</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.22563086201734</v>
+        <v>0.2068552890541469</v>
       </c>
       <c r="M14">
-        <v>1.041294369390748</v>
+        <v>0.5335328992426085</v>
       </c>
       <c r="N14">
-        <v>1.328039274620082</v>
+        <v>2.302865824636356</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.809420242113163</v>
+        <v>3.072843688059095</v>
       </c>
       <c r="C15">
-        <v>1.32698208577807</v>
+        <v>0.3664771351643026</v>
       </c>
       <c r="D15">
-        <v>0.06694391809654832</v>
+        <v>0.124230309721014</v>
       </c>
       <c r="E15">
-        <v>0.0416080546149189</v>
+        <v>0.05415250555848949</v>
       </c>
       <c r="F15">
-        <v>3.923130254159418</v>
+        <v>2.771923928000433</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2233307016435759</v>
+        <v>0.2064492443253982</v>
       </c>
       <c r="M15">
-        <v>1.028871302444514</v>
+        <v>0.5309123106331768</v>
       </c>
       <c r="N15">
-        <v>1.328821771145215</v>
+        <v>2.30374409051521</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.335186900718384</v>
+        <v>2.96924485140255</v>
       </c>
       <c r="C16">
-        <v>1.232646499336283</v>
+        <v>0.3433021610682658</v>
       </c>
       <c r="D16">
-        <v>0.06658944809461076</v>
+        <v>0.1244788630100473</v>
       </c>
       <c r="E16">
-        <v>0.0402399769538988</v>
+        <v>0.05377374637718191</v>
       </c>
       <c r="F16">
-        <v>3.684756299282839</v>
+        <v>2.726488856198358</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2103353452732364</v>
+        <v>0.2041536384624294</v>
       </c>
       <c r="M16">
-        <v>0.9585667101865667</v>
+        <v>0.5159852336579434</v>
       </c>
       <c r="N16">
-        <v>1.334537787625479</v>
+        <v>2.308995116236858</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.049089234189864</v>
+        <v>2.906148922517161</v>
       </c>
       <c r="C17">
-        <v>1.175677352487583</v>
+        <v>0.3290982369068161</v>
       </c>
       <c r="D17">
-        <v>0.06644190164374919</v>
+        <v>0.1246437018731399</v>
       </c>
       <c r="E17">
-        <v>0.03941568275664942</v>
+        <v>0.05353972241713656</v>
       </c>
       <c r="F17">
-        <v>3.542146049896587</v>
+        <v>2.699044174495356</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2025178861860013</v>
+        <v>0.2027732158908577</v>
       </c>
       <c r="M17">
-        <v>0.9161695478400418</v>
+        <v>0.5069083224728317</v>
       </c>
       <c r="N17">
-        <v>1.33908158329632</v>
+        <v>2.312410338694377</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.886159068804716</v>
+        <v>2.870025376367607</v>
       </c>
       <c r="C18">
-        <v>1.143210906982574</v>
+        <v>0.3209330907955632</v>
       </c>
       <c r="D18">
-        <v>0.06638095392614929</v>
+        <v>0.1247430384952253</v>
       </c>
       <c r="E18">
-        <v>0.0389464627062388</v>
+        <v>0.0534044991452074</v>
       </c>
       <c r="F18">
-        <v>3.461349186111335</v>
+        <v>2.683415237091282</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1980741898085085</v>
+        <v>0.2019894521868792</v>
       </c>
       <c r="M18">
-        <v>0.8920308773755465</v>
+        <v>0.5017169206700842</v>
       </c>
       <c r="N18">
-        <v>1.34205304762412</v>
+        <v>2.314445672688137</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.831259547298089</v>
+        <v>2.85782325214052</v>
       </c>
       <c r="C19">
-        <v>1.132267193320104</v>
+        <v>0.3181692734488308</v>
       </c>
       <c r="D19">
-        <v>0.0663642676530074</v>
+        <v>0.1247774479126562</v>
       </c>
       <c r="E19">
-        <v>0.03878837872420959</v>
+        <v>0.05335860800103376</v>
       </c>
       <c r="F19">
-        <v>3.434194543674153</v>
+        <v>2.67815034766241</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1965783060404078</v>
+        <v>0.2017258366205965</v>
       </c>
       <c r="M19">
-        <v>0.8838983858911291</v>
+        <v>0.4999642373630024</v>
       </c>
       <c r="N19">
-        <v>1.343118543102491</v>
+        <v>2.315146969109108</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.079373346257512</v>
+        <v>2.912848227931818</v>
       </c>
       <c r="C20">
-        <v>1.181710023608218</v>
+        <v>0.3306097893927245</v>
       </c>
       <c r="D20">
-        <v>0.06645509467462318</v>
+        <v>0.1246256857373851</v>
       </c>
       <c r="E20">
-        <v>0.03950291081684654</v>
+        <v>0.05356469858211277</v>
       </c>
       <c r="F20">
-        <v>3.557197748031285</v>
+        <v>2.701949489261267</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2033445233247733</v>
+        <v>0.202919106202728</v>
       </c>
       <c r="M20">
-        <v>0.9206567502949596</v>
+        <v>0.5078715295689733</v>
       </c>
       <c r="N20">
-        <v>1.338560336547502</v>
+        <v>2.312039429459304</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.933479940288919</v>
+        <v>3.099733452099827</v>
       </c>
       <c r="C21">
-        <v>1.351643667536223</v>
+        <v>0.3724647477569647</v>
       </c>
       <c r="D21">
-        <v>0.06705859452432605</v>
+        <v>0.1241699726798231</v>
       </c>
       <c r="E21">
-        <v>0.04196643080176088</v>
+        <v>0.05424978320900031</v>
       </c>
       <c r="F21">
-        <v>3.985883601185833</v>
+        <v>2.783787484600197</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2267373050014783</v>
+        <v>0.2070505523975612</v>
       </c>
       <c r="M21">
-        <v>1.047268131129691</v>
+        <v>0.5347911477622915</v>
       </c>
       <c r="N21">
-        <v>1.327686755155767</v>
+        <v>2.302448538720441</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.509513487578488</v>
+        <v>3.223386689591791</v>
       </c>
       <c r="C22">
-        <v>1.466081621425417</v>
+        <v>0.3998657928131593</v>
       </c>
       <c r="D22">
-        <v>0.06770612875950377</v>
+        <v>0.1239127892296992</v>
       </c>
       <c r="E22">
-        <v>0.04363393693119377</v>
+        <v>0.0546921445419688</v>
       </c>
       <c r="F22">
-        <v>4.279316416463075</v>
+        <v>2.838685660933095</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2425888254286974</v>
+        <v>0.2098420896090261</v>
       </c>
       <c r="M22">
-        <v>1.132712628794209</v>
+        <v>0.5526493957191789</v>
       </c>
       <c r="N22">
-        <v>1.324289592337863</v>
+        <v>2.296818138332554</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.200264451257226</v>
+        <v>3.157251173789575</v>
       </c>
       <c r="C23">
-        <v>1.404657709460309</v>
+        <v>0.3852368157873229</v>
       </c>
       <c r="D23">
-        <v>0.06733521215836902</v>
+        <v>0.1240463160833656</v>
       </c>
       <c r="E23">
-        <v>0.04273795028061222</v>
+        <v>0.0544565340000176</v>
       </c>
       <c r="F23">
-        <v>4.121368964034559</v>
+        <v>2.809255337126018</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2340720928951043</v>
+        <v>0.2083438108709572</v>
       </c>
       <c r="M23">
-        <v>1.086836164503424</v>
+        <v>0.5430937461571972</v>
       </c>
       <c r="N23">
-        <v>1.325735539606754</v>
+        <v>2.299764553755807</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.065677102614416</v>
+        <v>2.909819001402354</v>
       </c>
       <c r="C24">
-        <v>1.178981769843801</v>
+        <v>0.3299264138379385</v>
       </c>
       <c r="D24">
-        <v>0.06644905614670193</v>
+        <v>0.1246338166063481</v>
       </c>
       <c r="E24">
-        <v>0.03946346058427608</v>
+        <v>0.05355340897676442</v>
       </c>
       <c r="F24">
-        <v>3.550389187801187</v>
+        <v>2.700635531387661</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.20297064384647</v>
+        <v>0.202853118486729</v>
       </c>
       <c r="M24">
-        <v>0.9186273561049418</v>
+        <v>0.5074359794639349</v>
       </c>
       <c r="N24">
-        <v>1.338794878915436</v>
+        <v>2.312206893705721</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.902636348944839</v>
+        <v>2.649316820617685</v>
       </c>
       <c r="C25">
-        <v>0.9467715602355042</v>
+        <v>0.2704366529130198</v>
       </c>
       <c r="D25">
-        <v>0.06639216504613188</v>
+        <v>0.1254403567337263</v>
       </c>
       <c r="E25">
-        <v>0.03611322635880043</v>
+        <v>0.05255550338582093</v>
       </c>
       <c r="F25">
-        <v>2.980537126191365</v>
+        <v>2.589444330953796</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1713989626067018</v>
+        <v>0.1973209581740676</v>
       </c>
       <c r="M25">
-        <v>0.7464306642758416</v>
+        <v>0.4700954177488583</v>
       </c>
       <c r="N25">
-        <v>1.366359758734959</v>
+        <v>2.328338751546298</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.462849570000458</v>
+        <v>4.08391004843827</v>
       </c>
       <c r="C2">
-        <v>0.2267414144939721</v>
+        <v>0.7824095879817605</v>
       </c>
       <c r="D2">
-        <v>0.1261810435928226</v>
+        <v>0.0669542902169411</v>
       </c>
       <c r="E2">
-        <v>0.05179948103848364</v>
+        <v>0.03374457810037601</v>
       </c>
       <c r="F2">
-        <v>2.512590215698481</v>
+        <v>2.590444526255254</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1935801646048105</v>
+        <v>0.1494388809187157</v>
       </c>
       <c r="M2">
-        <v>0.443544082336615</v>
+        <v>0.6254142580026993</v>
       </c>
       <c r="N2">
-        <v>2.342519244637273</v>
+        <v>1.396008983703453</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.339734690346575</v>
+        <v>3.546489984438495</v>
       </c>
       <c r="C3">
-        <v>0.1971758706343962</v>
+        <v>0.6739081575263413</v>
       </c>
       <c r="D3">
-        <v>0.1267737299606289</v>
+        <v>0.06764431848187868</v>
       </c>
       <c r="E3">
-        <v>0.05127343437879794</v>
+        <v>0.03217747386880454</v>
       </c>
       <c r="F3">
-        <v>2.463575717352057</v>
+        <v>2.340320051600045</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1912509182809643</v>
+        <v>0.1351873982342084</v>
       </c>
       <c r="M3">
-        <v>0.4261271886266371</v>
+        <v>0.5461042636370408</v>
       </c>
       <c r="N3">
-        <v>2.353551735120391</v>
+        <v>1.421022940004761</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.26572530936636</v>
+        <v>3.223410479770337</v>
       </c>
       <c r="C4">
-        <v>0.179039771927421</v>
+        <v>0.6083647429720145</v>
       </c>
       <c r="D4">
-        <v>0.1271821046592834</v>
+        <v>0.06820165381999388</v>
       </c>
       <c r="E4">
-        <v>0.05094355868143374</v>
+        <v>0.03122775428962932</v>
       </c>
       <c r="F4">
-        <v>2.434976978526691</v>
+        <v>2.192596101961399</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1899219057063846</v>
+        <v>0.1266995785212259</v>
       </c>
       <c r="M4">
-        <v>0.4157147108890555</v>
+        <v>0.4984878254005025</v>
       </c>
       <c r="N4">
-        <v>2.361022628853064</v>
+        <v>1.438550607952124</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.235961576800605</v>
+        <v>3.093261595361184</v>
       </c>
       <c r="C5">
-        <v>0.1716527671450478</v>
+        <v>0.5818800420456967</v>
       </c>
       <c r="D5">
-        <v>0.1273596603933207</v>
+        <v>0.06845989427806032</v>
       </c>
       <c r="E5">
-        <v>0.05080738384047745</v>
+        <v>0.03084304944435079</v>
       </c>
       <c r="F5">
-        <v>2.423696730668482</v>
+        <v>2.1337131489109</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.189405717609489</v>
+        <v>0.1233002899552389</v>
       </c>
       <c r="M5">
-        <v>0.4115419923478498</v>
+        <v>0.4793216937269165</v>
       </c>
       <c r="N5">
-        <v>2.364241640070588</v>
+        <v>1.446204127764062</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.231043157541535</v>
+        <v>3.07173537467952</v>
       </c>
       <c r="C6">
-        <v>0.1704263568152271</v>
+        <v>0.5774945905364746</v>
       </c>
       <c r="D6">
-        <v>0.1273898150171888</v>
+        <v>0.06850458672302651</v>
       </c>
       <c r="E6">
-        <v>0.05078466603803111</v>
+        <v>0.03077928675174935</v>
       </c>
       <c r="F6">
-        <v>2.421846174276411</v>
+        <v>2.124010853961309</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1893215376319404</v>
+        <v>0.1227392599112562</v>
       </c>
       <c r="M6">
-        <v>0.4108533605601608</v>
+        <v>0.476152617722434</v>
       </c>
       <c r="N6">
-        <v>2.364786677732539</v>
+        <v>1.447504894000161</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.26532230645023</v>
+        <v>3.221649421638858</v>
       </c>
       <c r="C7">
-        <v>0.1789401345724286</v>
+        <v>0.6080067085874248</v>
       </c>
       <c r="D7">
-        <v>0.1271844541887184</v>
+        <v>0.06820501363007736</v>
       </c>
       <c r="E7">
-        <v>0.05094172927922891</v>
+        <v>0.03122255768567062</v>
       </c>
       <c r="F7">
-        <v>2.43482333802568</v>
+        <v>2.191796854351367</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1899148414405403</v>
+        <v>0.1266535014839931</v>
       </c>
       <c r="M7">
-        <v>0.4156581513565811</v>
+        <v>0.4982284230487224</v>
       </c>
       <c r="N7">
-        <v>2.361065335703046</v>
+        <v>1.438651800879811</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.420069291190828</v>
+        <v>3.897032819330605</v>
       </c>
       <c r="C8">
-        <v>0.2165431763653771</v>
+        <v>0.7447456283332201</v>
       </c>
       <c r="D8">
-        <v>0.126376148800496</v>
+        <v>0.06716289103589546</v>
       </c>
       <c r="E8">
-        <v>0.05161951757817373</v>
+        <v>0.03320112110246765</v>
       </c>
       <c r="F8">
-        <v>2.495378032804112</v>
+        <v>2.502887985097047</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1927560197516343</v>
+        <v>0.1444663660746386</v>
       </c>
       <c r="M8">
-        <v>0.437480078449255</v>
+        <v>0.597822678622066</v>
       </c>
       <c r="N8">
-        <v>2.346178194808672</v>
+        <v>1.404161766133853</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.736227738671232</v>
+        <v>5.28767849068953</v>
       </c>
       <c r="C9">
-        <v>0.2904566404548063</v>
+        <v>1.023781901534534</v>
       </c>
       <c r="D9">
-        <v>0.1251457441738282</v>
+        <v>0.06630740832748216</v>
       </c>
       <c r="E9">
-        <v>0.05289489744467879</v>
+        <v>0.03722306214960369</v>
       </c>
       <c r="F9">
-        <v>2.626112249226622</v>
+        <v>3.167301322499839</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1991326153031281</v>
+        <v>0.1818090665430532</v>
       </c>
       <c r="M9">
-        <v>0.4825258030473236</v>
+        <v>0.803407096581175</v>
       </c>
       <c r="N9">
-        <v>2.322545106758909</v>
+        <v>1.355486584220586</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.976467311397016</v>
+        <v>6.368063447883344</v>
       </c>
       <c r="C10">
-        <v>0.3449235667931134</v>
+        <v>1.239190012231802</v>
       </c>
       <c r="D10">
-        <v>0.1244606681744855</v>
+        <v>0.06660965005040964</v>
       </c>
       <c r="E10">
-        <v>0.05380036671946797</v>
+        <v>0.04033474061221476</v>
       </c>
       <c r="F10">
-        <v>2.729641756673573</v>
+        <v>3.701202916202533</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2043125403091608</v>
+        <v>0.2112348082351332</v>
       </c>
       <c r="M10">
-        <v>0.5170249657290498</v>
+        <v>0.9634395609424189</v>
       </c>
       <c r="N10">
-        <v>2.308615053884523</v>
+        <v>1.33406945505871</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.087535698457714</v>
+        <v>6.877152585804254</v>
       </c>
       <c r="C11">
-        <v>0.369749989201182</v>
+        <v>1.340447229296842</v>
       </c>
       <c r="D11">
-        <v>0.1241971384477267</v>
+        <v>0.06700541883908784</v>
       </c>
       <c r="E11">
-        <v>0.0542057063608663</v>
+        <v>0.04180368687290859</v>
       </c>
       <c r="F11">
-        <v>2.778402473010175</v>
+        <v>3.957371551690613</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.206777519720788</v>
+        <v>0.2251902488142292</v>
       </c>
       <c r="M11">
-        <v>0.5330314114518657</v>
+        <v>1.038915093212381</v>
       </c>
       <c r="N11">
-        <v>2.303032930292858</v>
+        <v>1.328183962931291</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.129854200067484</v>
+        <v>7.072943985451388</v>
       </c>
       <c r="C12">
-        <v>0.3791591112508854</v>
+        <v>1.379360378235617</v>
       </c>
       <c r="D12">
-        <v>0.1241043155248676</v>
+        <v>0.06719812750713317</v>
       </c>
       <c r="E12">
-        <v>0.05435827494959611</v>
+        <v>0.04236959698302734</v>
       </c>
       <c r="F12">
-        <v>2.797109177730391</v>
+        <v>4.056619149722053</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2077266295704163</v>
+        <v>0.230570130606182</v>
       </c>
       <c r="M12">
-        <v>0.5391380859501709</v>
+        <v>1.067951603733832</v>
       </c>
       <c r="N12">
-        <v>2.301028456949766</v>
+        <v>1.326584168697636</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.120728571409245</v>
+        <v>7.030634507898867</v>
       </c>
       <c r="C13">
-        <v>0.3771323240249558</v>
+        <v>1.370952659516831</v>
       </c>
       <c r="D13">
-        <v>0.124123995780387</v>
+        <v>0.06715461738825468</v>
       </c>
       <c r="E13">
-        <v>0.05432545739713035</v>
+        <v>0.04224725353823189</v>
       </c>
       <c r="F13">
-        <v>2.793069543975179</v>
+        <v>4.035138860214829</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2075215236528578</v>
+        <v>0.2294070054879001</v>
       </c>
       <c r="M13">
-        <v>0.5378208790628918</v>
+        <v>1.06167656411877</v>
       </c>
       <c r="N13">
-        <v>2.301455279218828</v>
+        <v>1.326899430784721</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.091012052373628</v>
+        <v>6.893197128112035</v>
       </c>
       <c r="C14">
-        <v>0.3705239203225688</v>
+        <v>1.343636601499611</v>
       </c>
       <c r="D14">
-        <v>0.1241893618618803</v>
+        <v>0.06702037830997654</v>
       </c>
       <c r="E14">
-        <v>0.05421827669375645</v>
+        <v>0.04185003861451264</v>
       </c>
       <c r="F14">
-        <v>2.779936617551897</v>
+        <v>3.965489697092778</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2068552890541469</v>
+        <v>0.2256308620173542</v>
       </c>
       <c r="M14">
-        <v>0.5335328992426085</v>
+        <v>1.041294369390762</v>
       </c>
       <c r="N14">
-        <v>2.302865824636356</v>
+        <v>1.328039274620124</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.072843688059095</v>
+        <v>6.809420242113049</v>
       </c>
       <c r="C15">
-        <v>0.3664771351643026</v>
+        <v>1.32698208577807</v>
       </c>
       <c r="D15">
-        <v>0.124230309721014</v>
+        <v>0.0669439180967899</v>
       </c>
       <c r="E15">
-        <v>0.05415250555848949</v>
+        <v>0.04160805461492068</v>
       </c>
       <c r="F15">
-        <v>2.771923928000433</v>
+        <v>3.923130254159418</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2064492443253982</v>
+        <v>0.2233307016434765</v>
       </c>
       <c r="M15">
-        <v>0.5309123106331768</v>
+        <v>1.028871302444507</v>
       </c>
       <c r="N15">
-        <v>2.30374409051521</v>
+        <v>1.328821771145172</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.96924485140255</v>
+        <v>6.335186900718043</v>
       </c>
       <c r="C16">
-        <v>0.3433021610682658</v>
+        <v>1.232646499336283</v>
       </c>
       <c r="D16">
-        <v>0.1244788630100473</v>
+        <v>0.06658944809461786</v>
       </c>
       <c r="E16">
-        <v>0.05377374637718191</v>
+        <v>0.04023997695390058</v>
       </c>
       <c r="F16">
-        <v>2.726488856198358</v>
+        <v>3.684756299282867</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2041536384624294</v>
+        <v>0.2103353452733501</v>
       </c>
       <c r="M16">
-        <v>0.5159852336579434</v>
+        <v>0.9585667101865738</v>
       </c>
       <c r="N16">
-        <v>2.308995116236858</v>
+        <v>1.334537787625422</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.906148922517161</v>
+        <v>6.049089234189978</v>
       </c>
       <c r="C17">
-        <v>0.3290982369068161</v>
+        <v>1.175677352487355</v>
       </c>
       <c r="D17">
-        <v>0.1246437018731399</v>
+        <v>0.06644190164387709</v>
       </c>
       <c r="E17">
-        <v>0.05353972241713656</v>
+        <v>0.03941568275655172</v>
       </c>
       <c r="F17">
-        <v>2.699044174495356</v>
+        <v>3.542146049896587</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2027732158908577</v>
+        <v>0.2025178861860013</v>
       </c>
       <c r="M17">
-        <v>0.5069083224728317</v>
+        <v>0.9161695478400276</v>
       </c>
       <c r="N17">
-        <v>2.312410338694377</v>
+        <v>1.339081583296277</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.870025376367607</v>
+        <v>5.886159068804659</v>
       </c>
       <c r="C18">
-        <v>0.3209330907955632</v>
+        <v>1.143210906982858</v>
       </c>
       <c r="D18">
-        <v>0.1247430384952253</v>
+        <v>0.06638095392600718</v>
       </c>
       <c r="E18">
-        <v>0.0534044991452074</v>
+        <v>0.03894646270629032</v>
       </c>
       <c r="F18">
-        <v>2.683415237091282</v>
+        <v>3.461349186111335</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2019894521868792</v>
+        <v>0.1980741898084943</v>
       </c>
       <c r="M18">
-        <v>0.5017169206700842</v>
+        <v>0.892030877375575</v>
       </c>
       <c r="N18">
-        <v>2.314445672688137</v>
+        <v>1.342053047624105</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.85782325214052</v>
+        <v>5.831259547298032</v>
       </c>
       <c r="C19">
-        <v>0.3181692734488308</v>
+        <v>1.132267193319819</v>
       </c>
       <c r="D19">
-        <v>0.1247774479126562</v>
+        <v>0.06636426765310688</v>
       </c>
       <c r="E19">
-        <v>0.05335860800103376</v>
+        <v>0.03878837872423979</v>
       </c>
       <c r="F19">
-        <v>2.67815034766241</v>
+        <v>3.434194543674181</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2017258366205965</v>
+        <v>0.1965783060403794</v>
       </c>
       <c r="M19">
-        <v>0.4999642373630024</v>
+        <v>0.8838983858911362</v>
       </c>
       <c r="N19">
-        <v>2.315146969109108</v>
+        <v>1.343118543102392</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.912848227931818</v>
+        <v>6.079373346257512</v>
       </c>
       <c r="C20">
-        <v>0.3306097893927245</v>
+        <v>1.181710023608218</v>
       </c>
       <c r="D20">
-        <v>0.1246256857373851</v>
+        <v>0.06645509467499267</v>
       </c>
       <c r="E20">
-        <v>0.05356469858211277</v>
+        <v>0.03950291081685542</v>
       </c>
       <c r="F20">
-        <v>2.701949489261267</v>
+        <v>3.557197748031285</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.202919106202728</v>
+        <v>0.2033445233247022</v>
       </c>
       <c r="M20">
-        <v>0.5078715295689733</v>
+        <v>0.9206567502949454</v>
       </c>
       <c r="N20">
-        <v>2.312039429459304</v>
+        <v>1.338560336547545</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.099733452099827</v>
+        <v>6.933479940288805</v>
       </c>
       <c r="C21">
-        <v>0.3724647477569647</v>
+        <v>1.351643667536223</v>
       </c>
       <c r="D21">
-        <v>0.1241699726798231</v>
+        <v>0.06705859452434026</v>
       </c>
       <c r="E21">
-        <v>0.05424978320900031</v>
+        <v>0.04196643080176798</v>
       </c>
       <c r="F21">
-        <v>2.783787484600197</v>
+        <v>3.985883601185861</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2070505523975612</v>
+        <v>0.2267373050013219</v>
       </c>
       <c r="M21">
-        <v>0.5347911477622915</v>
+        <v>1.047268131129705</v>
       </c>
       <c r="N21">
-        <v>2.302448538720441</v>
+        <v>1.327686755155696</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.223386689591791</v>
+        <v>7.509513487578658</v>
       </c>
       <c r="C22">
-        <v>0.3998657928131593</v>
+        <v>1.466081621425417</v>
       </c>
       <c r="D22">
-        <v>0.1239127892296992</v>
+        <v>0.06770612875936166</v>
       </c>
       <c r="E22">
-        <v>0.0546921445419688</v>
+        <v>0.04363393693125772</v>
       </c>
       <c r="F22">
-        <v>2.838685660933095</v>
+        <v>4.279316416463047</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2098420896090261</v>
+        <v>0.2425888254286832</v>
       </c>
       <c r="M22">
-        <v>0.5526493957191789</v>
+        <v>1.132712628794195</v>
       </c>
       <c r="N22">
-        <v>2.296818138332554</v>
+        <v>1.324289592337792</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.157251173789575</v>
+        <v>7.200264451256942</v>
       </c>
       <c r="C23">
-        <v>0.3852368157873229</v>
+        <v>1.404657709459968</v>
       </c>
       <c r="D23">
-        <v>0.1240463160833656</v>
+        <v>0.0673352121586106</v>
       </c>
       <c r="E23">
-        <v>0.0544565340000176</v>
+        <v>0.04273795028061755</v>
       </c>
       <c r="F23">
-        <v>2.809255337126018</v>
+        <v>4.121368964034531</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2083438108709572</v>
+        <v>0.2340720928951185</v>
       </c>
       <c r="M23">
-        <v>0.5430937461571972</v>
+        <v>1.08683616450341</v>
       </c>
       <c r="N23">
-        <v>2.299764553755807</v>
+        <v>1.325735539606697</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.909819001402354</v>
+        <v>6.065677102614472</v>
       </c>
       <c r="C24">
-        <v>0.3299264138379385</v>
+        <v>1.178981769843517</v>
       </c>
       <c r="D24">
-        <v>0.1246338166063481</v>
+        <v>0.06644905614643193</v>
       </c>
       <c r="E24">
-        <v>0.05355340897676442</v>
+        <v>0.03946346058430628</v>
       </c>
       <c r="F24">
-        <v>2.700635531387661</v>
+        <v>3.550389187801187</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.202853118486729</v>
+        <v>0.2029706438463705</v>
       </c>
       <c r="M24">
-        <v>0.5074359794639349</v>
+        <v>0.9186273561049347</v>
       </c>
       <c r="N24">
-        <v>2.312206893705721</v>
+        <v>1.338794878915451</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.649316820617685</v>
+        <v>4.902636348944839</v>
       </c>
       <c r="C25">
-        <v>0.2704366529130198</v>
+        <v>0.9467715602355042</v>
       </c>
       <c r="D25">
-        <v>0.1254403567337263</v>
+        <v>0.06639216504579082</v>
       </c>
       <c r="E25">
-        <v>0.05255550338582093</v>
+        <v>0.03611322635873826</v>
       </c>
       <c r="F25">
-        <v>2.589444330953796</v>
+        <v>2.980537126191365</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1973209581740676</v>
+        <v>0.1713989626068084</v>
       </c>
       <c r="M25">
-        <v>0.4700954177488583</v>
+        <v>0.7464306642758345</v>
       </c>
       <c r="N25">
-        <v>2.328338751546298</v>
+        <v>1.366359758734987</v>
       </c>
       <c r="O25">
         <v>0</v>
